--- a/biology/Médecine/Jocelyne_Troccaz/Jocelyne_Troccaz.xlsx
+++ b/biology/Médecine/Jocelyne_Troccaz/Jocelyne_Troccaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jocelyne Troccaz, née en 1959 en Haute-Savoie est une chercheuse en informatique française. Elle est spécialisée dans l’imagerie et la robotique médicale pour la chirurgie assistée par ordinateur[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jocelyne Troccaz, née en 1959 en Haute-Savoie est une chercheuse en informatique française. Elle est spécialisée dans l’imagerie et la robotique médicale pour la chirurgie assistée par ordinateur,.
 </t>
         </is>
       </c>
@@ -513,19 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Jocelyne Troccaz passe son baccalauréat scientifique en 1976. Elle obtient un DEUG en maths-physique en 1979. Elle passe ensuite sa licence d'informatique en 1980 et sa maîtrise en 1981. En 1982, elle effectue un DEA en informatique à l'Institut polytechnique de Grenoble. 
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jocelyne Troccaz passe son baccalauréat scientifique en 1976. Elle obtient un DEUG en maths-physique en 1979. Elle passe ensuite sa licence d'informatique en 1980 et sa maîtrise en 1981. En 1982, elle effectue un DEA en informatique à l'Institut polytechnique de Grenoble. 
 En 1986, elle soutient sa thèse de doctorat en informatique sous la direction de Jean-Claude Latombe (en) et Christian Laugier dans ce même institut. En juillet-août 1987, elle effectue un stage postdoctoral au laboratoire de robotique de l'université Stanford. 
 En 1993, elle obtient son habilitation à diriger les recherches à l'Institut National Polytechnique de Grenoble avec comme spécialité "informatique et mathématiques appliquées". 
-En 2000, elle passe une licence de psychologie à l'université Lumière-Lyon-II[1].
-Carrière
-De 1984 à 1988, elle est assistante universitaire à l'université Joseph-Fourier (devenue aujourd'hui l'université Grenoble-Alpes). En 1988, elle entre au CNRS en tant que chargée de recherche. Elle s'intéresse tout d'abord à la programmation robotique. Cette première période de sa carrière se déroule dans l'équipe "Intelligence Artificielle, Vision et Robotique" de l'IMAG puis du laboratoire LIFIA. 
-En 1990, elle rejoint le laboratoire TIMC-IMAG (alors appelé TIM3), un laboratoire CNRS de Technologies pour la Santé à l'Université de Grenoble, implanté à l'intérieur du CHU. Elle commence à s'intéresser à la robotique médicale pour la chirurgie assistée par ordinateur[3]. 
-En 1998, elle y devient directrice de recherche. Elle est également enseignante vacataire à l'université de Grenoble. De 1996 à 2013 elle dirige l'équipe "Gestes Médico-Chirurgicaux Assistés par Ordinateur" du laboratoire TIMC-IMAG. De janvier 2006 à décembre 2015, elle est directrice adjointe du laboratoire TIMC-IMAG. Elle dirige le LabEx national CAMI de 2016 à fin 2022. Elle est directrice de recherche CNRS de classe exceptionnelle depuis octobre 2017[4]. 
-Elle est nommée membre de l'Académie des sciences en décembre 2022[5] au titre de l'inter-section "applications des sciences" et est rattachée à la section "Sciences mécaniques et informatiques".
-Retraitée en mars 2024, elle devient Directrice de Recherche Emérite au CNRS, toujours au laboratoire TIMC.
-Vie privée
-Elle est mariée et a un enfant[4].
+En 2000, elle passe une licence de psychologie à l'université Lumière-Lyon-II.
 </t>
         </is>
       </c>
@@ -551,20 +560,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1984 à 1988, elle est assistante universitaire à l'université Joseph-Fourier (devenue aujourd'hui l'université Grenoble-Alpes). En 1988, elle entre au CNRS en tant que chargée de recherche. Elle s'intéresse tout d'abord à la programmation robotique. Cette première période de sa carrière se déroule dans l'équipe "Intelligence Artificielle, Vision et Robotique" de l'IMAG puis du laboratoire LIFIA. 
+En 1990, elle rejoint le laboratoire TIMC-IMAG (alors appelé TIM3), un laboratoire CNRS de Technologies pour la Santé à l'Université de Grenoble, implanté à l'intérieur du CHU. Elle commence à s'intéresser à la robotique médicale pour la chirurgie assistée par ordinateur. 
+En 1998, elle y devient directrice de recherche. Elle est également enseignante vacataire à l'université de Grenoble. De 1996 à 2013 elle dirige l'équipe "Gestes Médico-Chirurgicaux Assistés par Ordinateur" du laboratoire TIMC-IMAG. De janvier 2006 à décembre 2015, elle est directrice adjointe du laboratoire TIMC-IMAG. Elle dirige le LabEx national CAMI de 2016 à fin 2022. Elle est directrice de recherche CNRS de classe exceptionnelle depuis octobre 2017. 
+Elle est nommée membre de l'Académie des sciences en décembre 2022 au titre de l'inter-section "applications des sciences" et est rattachée à la section "Sciences mécaniques et informatiques".
+Retraitée en mars 2024, elle devient Directrice de Recherche Emérite au CNRS, toujours au laboratoire TIMC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jocelyne_Troccaz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jocelyne_Troccaz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mariée et a un enfant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jocelyne_Troccaz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jocelyne_Troccaz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Honneurs et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2010 : Élue Fellow de la société Medical Image Analysis and Computer Assisted Interventions (MICCAI)[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2010 : Élue Fellow de la société Medical Image Analysis and Computer Assisted Interventions (MICCAI)
 2013 : Prix de l’Académie Nationale de Chirurgie
 2014 : Membre de l'Académie Nationale de Chirurgie
-2015 : Médaille d’argent du CNRS[7]
-2016 :  Chevalier de la Légion d'honneur[8]
-2018 : Élue Fellow de l'Institute of Electrical and Electronics Engineers[4]
-2022 : Prix "impact durable" (MICCAI Enduring Impact Award) de la société MICCAI[9]
-2022 : Nomination à l'Académie des sciences[5]
-2023 :  Officier de l'ordre national du Mérite[10]</t>
+2015 : Médaille d’argent du CNRS
+2016 :  Chevalier de la Légion d'honneur
+2018 : Élue Fellow de l'Institute of Electrical and Electronics Engineers
+2022 : Prix "impact durable" (MICCAI Enduring Impact Award) de la société MICCAI
+2022 : Nomination à l'Académie des sciences
+2023 :  Officier de l'ordre national du Mérite</t>
         </is>
       </c>
     </row>
